--- a/jdotxt_coverage_calculation.xlsx
+++ b/jdotxt_coverage_calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\git\jdotxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D94574-0C6F-45E2-A3E9-BF93EB2E9330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B5F11-686E-4897-AAFE-873DD10FA4FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5BA41513-695C-4322-9DB4-994F2517AD28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BA41513-695C-4322-9DB4-994F2517AD28}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>com.todotxt.todotxttouch</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Branch Coverage</t>
+  </si>
+  <si>
+    <t>Line Coverage</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -218,6 +224,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B3B2D1-4054-4494-99FE-1EEAB09BEE77}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,96 +551,202 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <f>(C2/D2)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <f>(C3/D3)*100</f>
-        <v>90.696394164602253</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3295</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="6">
         <f>(C4/D4)*100</f>
-        <v>97.720797720797719</v>
+        <v>79.512195121951223</v>
       </c>
       <c r="C4" s="2">
-        <v>686</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <f>(C5/D5)*100</f>
+        <v>86.764705882352942</v>
+      </c>
+      <c r="C5" s="2">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3">
+        <v>68</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <f>(C5/D5)*100</f>
-        <v>84.387510008006402</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1054</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="7">
+        <f>(C6/D6)*100</f>
+        <v>82.53012048192771</v>
+      </c>
+      <c r="C6" s="4">
+        <v>137</v>
+      </c>
+      <c r="D6" s="5">
+        <v>166</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
-        <f>(C6/D6)*100</f>
-        <v>90.046461758398848</v>
-      </c>
-      <c r="C6" s="8">
-        <f>SUM(C2:C5)</f>
-        <v>5039</v>
-      </c>
-      <c r="D6" s="8">
-        <f>SUM(D2:D5)</f>
-        <v>5596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B7" s="9">
+        <f>(C7/D7)*100</f>
+        <v>81.055900621118013</v>
+      </c>
+      <c r="C7" s="8">
+        <f>SUM(C3:C6)</f>
+        <v>522</v>
+      </c>
+      <c r="D7" s="8">
+        <f>SUM(D3:D6)</f>
+        <v>644</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
+        <f>(C11/D11)*100</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <f>(C12/D12)*100</f>
+        <v>90.498261877172652</v>
+      </c>
+      <c r="C12" s="2">
+        <v>781</v>
+      </c>
+      <c r="D12" s="3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <f>(C13/D13)*100</f>
+        <v>96.629213483146074</v>
+      </c>
+      <c r="C13" s="2">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7">
+        <f>(C14/D14)*100</f>
+        <v>87.050359712230218</v>
+      </c>
+      <c r="C14" s="4">
+        <v>242</v>
+      </c>
+      <c r="D14" s="5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9">
+        <f>(C15/D15)*100</f>
+        <v>89.959514170040492</v>
+      </c>
+      <c r="C15" s="8">
+        <f>SUM(C11:C14)</f>
+        <v>1111</v>
+      </c>
+      <c r="D15" s="8">
+        <f>SUM(D11:D14)</f>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
